--- a/SP_Sklad/TempLate/RashOr.xlsx
+++ b/SP_Sklad/TempLate/RashOr.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Видатковий ордер" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -589,6 +589,27 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -646,9 +667,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -660,24 +678,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1429,9 +1429,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:O40"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1446,10 +1448,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
       <c r="F1" s="1"/>
       <c r="G1" s="31"/>
       <c r="H1" s="31"/>
@@ -1491,20 +1493,20 @@
       <c r="G4" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="58"/>
     </row>
     <row r="5" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="61"/>
     </row>
     <row r="6" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="33"/>
@@ -1513,11 +1515,11 @@
       <c r="E6" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="72" t="e">
+      <c r="F6" s="49" t="e">
         <f>PayDoc_ONDATE</f>
         <v>#NAME?</v>
       </c>
-      <c r="G6" s="72"/>
+      <c r="G6" s="49"/>
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
     </row>
@@ -1603,29 +1605,29 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="20"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
     </row>
     <row r="11" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="68" t="e">
+      <c r="C11" s="44" t="e">
         <f>PayDoc_KANAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="69"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="45"/>
+      <c r="L11" s="56"/>
+      <c r="M11" s="56"/>
+      <c r="N11" s="56"/>
+      <c r="O11" s="56"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" s="2"/>
@@ -1643,50 +1645,50 @@
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="55" t="e">
+      <c r="C13" s="62" t="e">
         <f>PayDoc_REASON</f>
         <v>#NAME?</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="56"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="63"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B14" s="70"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="71"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="48"/>
     </row>
     <row r="15" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="68" t="e">
+      <c r="C15" s="44" t="e">
         <f>PayDoc_CurrName</f>
         <v>#NAME?</v>
       </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="69"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="45"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="F16" s="61"/>
+      <c r="F16" s="68"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="21"/>
@@ -1695,16 +1697,16 @@
       <c r="B17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="57" t="e">
+      <c r="C17" s="64" t="e">
         <f>PayDoc_NOTES</f>
         <v>#NAME?</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="58"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
@@ -1742,43 +1744,43 @@
       <c r="F20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="65" t="s">
+      <c r="G20" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
     </row>
     <row r="21" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
+      <c r="C21" s="72"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="72"/>
+      <c r="I21" s="72"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="60"/>
+      <c r="F22" s="67"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="22"/>
     </row>
     <row r="23" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
       <c r="F23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1792,41 +1794,41 @@
       <c r="D24" s="23"/>
       <c r="E24" s="24"/>
       <c r="F24" s="1"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="63"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="69"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="46"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="53"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="48"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="55"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="43"/>
-      <c r="I27" s="44"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="51"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
@@ -1872,49 +1874,8 @@
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
     </row>
-    <row r="34" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-    </row>
-    <row r="35" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-    </row>
-    <row r="36" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G36" s="17"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-    </row>
-    <row r="37" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G37" s="17"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-    </row>
-    <row r="38" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G38" s="17"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-    </row>
-    <row r="39" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-    </row>
-    <row r="40" spans="7:9" x14ac:dyDescent="0.2">
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-    </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="C11:I11"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="B14:I14"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="B27:I27"/>
     <mergeCell ref="B25:I26"/>
     <mergeCell ref="L11:O11"/>
@@ -1928,6 +1889,12 @@
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="G20:I20"/>
     <mergeCell ref="C21:I21"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="C11:I11"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
